--- a/DOKUMENT/PENGUJIAN/rangkupam.xlsx
+++ b/DOKUMENT/PENGUJIAN/rangkupam.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\PENGUJIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980644F3-5513-4AC9-AC2D-785C3309821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF49D83C-0ADD-4611-A027-FB3ED75ABC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="model awal" sheetId="1" r:id="rId1"/>
-    <sheet name="hyperparameter2" sheetId="4" r:id="rId2"/>
-    <sheet name="NEW SKENARIO" sheetId="6" r:id="rId3"/>
+    <sheet name="PERCOBAAN PERTAMA" sheetId="1" r:id="rId1"/>
+    <sheet name="hyperparameter" sheetId="4" r:id="rId2"/>
+    <sheet name="SKENARIO" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -454,7 +454,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +623,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'model awal'!$E$14:$E$17</c:f>
+              <c:f>'PERCOBAAN PERTAMA'!$E$14:$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -643,7 +643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model awal'!$F$14:$F$17</c:f>
+              <c:f>'PERCOBAAN PERTAMA'!$F$14:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -718,7 +718,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'model awal'!$E$14:$E$17</c:f>
+              <c:f>'PERCOBAAN PERTAMA'!$E$14:$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -738,7 +738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model awal'!$G$14:$G$17</c:f>
+              <c:f>'PERCOBAAN PERTAMA'!$G$14:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1157,7 +1157,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>('NEW SKENARIO'!$F$3,'NEW SKENARIO'!$F$5,'NEW SKENARIO'!$F$7,'NEW SKENARIO'!$F$9,'NEW SKENARIO'!$F$11,'NEW SKENARIO'!$F$13,'NEW SKENARIO'!$F$15,'NEW SKENARIO'!$F$17,'NEW SKENARIO'!$F$19,'NEW SKENARIO'!$F$21,'NEW SKENARIO'!$F$23,'NEW SKENARIO'!$F$25,'NEW SKENARIO'!$F$27,'NEW SKENARIO'!$F$29,'NEW SKENARIO'!$F$31,'NEW SKENARIO'!$F$33)</c:f>
+              <c:f>(SKENARIO!$F$3,SKENARIO!$F$5,SKENARIO!$F$7,SKENARIO!$F$9,SKENARIO!$F$11,SKENARIO!$F$13,SKENARIO!$F$15,SKENARIO!$F$17,SKENARIO!$F$19,SKENARIO!$F$21,SKENARIO!$F$23,SKENARIO!$F$25,SKENARIO!$F$27,SKENARIO!$F$29,SKENARIO!$F$31,SKENARIO!$F$33)</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1213,7 +1213,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('NEW SKENARIO'!$G$3,'NEW SKENARIO'!$G$5,'NEW SKENARIO'!$G$7,'NEW SKENARIO'!$G$9,'NEW SKENARIO'!$G$11,'NEW SKENARIO'!$G$13,'NEW SKENARIO'!$G$15,'NEW SKENARIO'!$G$17,'NEW SKENARIO'!$G$19,'NEW SKENARIO'!$G$21,'NEW SKENARIO'!$G$23,'NEW SKENARIO'!$G$25,'NEW SKENARIO'!$G$27,'NEW SKENARIO'!$G$29,'NEW SKENARIO'!$G$31,'NEW SKENARIO'!$G$33)</c:f>
+              <c:f>(SKENARIO!$G$3,SKENARIO!$G$5,SKENARIO!$G$7,SKENARIO!$G$9,SKENARIO!$G$11,SKENARIO!$G$13,SKENARIO!$G$15,SKENARIO!$G$17,SKENARIO!$G$19,SKENARIO!$G$21,SKENARIO!$G$23,SKENARIO!$G$25,SKENARIO!$G$27,SKENARIO!$G$29,SKENARIO!$G$31,SKENARIO!$G$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1320,7 +1320,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>('NEW SKENARIO'!$F$2,'NEW SKENARIO'!$F$4,'NEW SKENARIO'!$F$6,'NEW SKENARIO'!$F$8,'NEW SKENARIO'!$F$10,'NEW SKENARIO'!$F$12,'NEW SKENARIO'!$F$14,'NEW SKENARIO'!$F$16,'NEW SKENARIO'!$F$18,'NEW SKENARIO'!$F$20,'NEW SKENARIO'!$F$22,'NEW SKENARIO'!$F$24,'NEW SKENARIO'!$F$26,'NEW SKENARIO'!$F$28,'NEW SKENARIO'!$F$30,'NEW SKENARIO'!$F$32)</c:f>
+              <c:f>(SKENARIO!$F$2,SKENARIO!$F$4,SKENARIO!$F$6,SKENARIO!$F$8,SKENARIO!$F$10,SKENARIO!$F$12,SKENARIO!$F$14,SKENARIO!$F$16,SKENARIO!$F$18,SKENARIO!$F$20,SKENARIO!$F$22,SKENARIO!$F$24,SKENARIO!$F$26,SKENARIO!$F$28,SKENARIO!$F$30,SKENARIO!$F$32)</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1376,7 +1376,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('NEW SKENARIO'!$G$2,'NEW SKENARIO'!$G$4,'NEW SKENARIO'!$G$6,'NEW SKENARIO'!$G$8,'NEW SKENARIO'!$G$10,'NEW SKENARIO'!$G$12,'NEW SKENARIO'!$G$14,'NEW SKENARIO'!$G$16,'NEW SKENARIO'!$G$18,'NEW SKENARIO'!$G$20,'NEW SKENARIO'!$G$22,'NEW SKENARIO'!$G$24,'NEW SKENARIO'!$G$26,'NEW SKENARIO'!$G$28,'NEW SKENARIO'!$G$30,'NEW SKENARIO'!$G$32)</c:f>
+              <c:f>(SKENARIO!$G$2,SKENARIO!$G$4,SKENARIO!$G$6,SKENARIO!$G$8,SKENARIO!$G$10,SKENARIO!$G$12,SKENARIO!$G$14,SKENARIO!$G$16,SKENARIO!$G$18,SKENARIO!$G$20,SKENARIO!$G$22,SKENARIO!$G$24,SKENARIO!$G$26,SKENARIO!$G$28,SKENARIO!$G$30,SKENARIO!$G$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1887,7 +1887,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NEW SKENARIO'!$A$2:$A$33</c:f>
+              <c:f>SKENARIO!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1992,7 +1992,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('NEW SKENARIO'!$G$32,'NEW SKENARIO'!$G$29,'NEW SKENARIO'!$G$28,'NEW SKENARIO'!$G$27,'NEW SKENARIO'!$G$21,'NEW SKENARIO'!$G$20,'NEW SKENARIO'!$G$19,'NEW SKENARIO'!$G$18,'NEW SKENARIO'!$G$16,'NEW SKENARIO'!$G$13,'NEW SKENARIO'!$G$12,'NEW SKENARIO'!$G$11,'NEW SKENARIO'!$G$5,'NEW SKENARIO'!$G$4,'NEW SKENARIO'!$G$3,'NEW SKENARIO'!$G$2)</c:f>
+              <c:f>(SKENARIO!$G$32,SKENARIO!$G$29,SKENARIO!$G$28,SKENARIO!$G$27,SKENARIO!$G$21,SKENARIO!$G$20,SKENARIO!$G$19,SKENARIO!$G$18,SKENARIO!$G$16,SKENARIO!$G$13,SKENARIO!$G$12,SKENARIO!$G$11,SKENARIO!$G$5,SKENARIO!$G$4,SKENARIO!$G$3,SKENARIO!$G$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2097,7 +2097,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'NEW SKENARIO'!$A$2:$A$33</c:f>
+              <c:f>SKENARIO!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2202,7 +2202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('NEW SKENARIO'!$G$6,'NEW SKENARIO'!$G$7,'NEW SKENARIO'!$G$8,'NEW SKENARIO'!$G$9,'NEW SKENARIO'!$G$10,'NEW SKENARIO'!$G$14,'NEW SKENARIO'!$G$15,'NEW SKENARIO'!$G$17,'NEW SKENARIO'!$G$22,'NEW SKENARIO'!$G$23,'NEW SKENARIO'!$G$24,'NEW SKENARIO'!$G$25,'NEW SKENARIO'!$G$26,'NEW SKENARIO'!$G$30,'NEW SKENARIO'!$G$31,'NEW SKENARIO'!$G$33)</c:f>
+              <c:f>(SKENARIO!$G$6,SKENARIO!$G$7,SKENARIO!$G$8,SKENARIO!$G$9,SKENARIO!$G$10,SKENARIO!$G$14,SKENARIO!$G$15,SKENARIO!$G$17,SKENARIO!$G$22,SKENARIO!$G$23,SKENARIO!$G$24,SKENARIO!$G$25,SKENARIO!$G$26,SKENARIO!$G$30,SKENARIO!$G$31,SKENARIO!$G$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2316,8 +2316,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-ID"/>
-                  <a:t>Nomor</a:t>
+                  <a:rPr lang="en-ID" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Percobaan</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2396,6 +2403,1586 @@
         <c:axId val="175157183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>mAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175152863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>LR ADAM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SKENARIO!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SKENARIO!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(SKENARIO!$G$4,SKENARIO!$G$8,SKENARIO!$G$12,SKENARIO!$G$16,SKENARIO!$G$20,SKENARIO!$G$24,SKENARIO!$G$28,SKENARIO!$G$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.87112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87916000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87480999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86755000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85841999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA7-4413-ADCE-8434FF82D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SKENARIO!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SKENARIO!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(SKENARIO!$G$2,SKENARIO!$G$6,SKENARIO!$G$10,SKENARIO!$G$14,SKENARIO!$G$18,SKENARIO!$G$22,SKENARIO!$G$26,SKENARIO!$G$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83652000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81623000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA7-4413-ADCE-8434FF82D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175152863"/>
+        <c:axId val="175157183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175152863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Percobaan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175157183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175157183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>mAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175152863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>LR RMSProp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SKENARIO!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,0001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SKENARIO!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(SKENARIO!$G$5,SKENARIO!$G$9,SKENARIO!$G$13,SKENARIO!$G$17,SKENARIO!$G$21,SKENARIO!$G$25,SKENARIO!$G$29,SKENARIO!$G$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.76819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76636000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70813999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA7-4413-ADCE-8434FF82D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SKENARIO!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SKENARIO!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(SKENARIO!$G$3,SKENARIO!$G$7,SKENARIO!$G$11,SKENARIO!$G$15,SKENARIO!$G$19,SKENARIO!$G$23,SKENARIO!$G$27,SKENARIO!$G$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.43691000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70355999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58157999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77102999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA7-4413-ADCE-8434FF82D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175152863"/>
+        <c:axId val="175157183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175152863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Percobaan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175157183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175157183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2703,6 +4290,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -3727,6 +5394,1010 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4338,6 +7009,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593642</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>267070</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Bagan 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF314AD-A680-5B41-BC93-5EC11FCABBDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596363</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>269791</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144606</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Bagan 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD757BD5-8135-B47E-F964-CCC94CC35B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5096,7 +7839,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="29" t="s">
         <v>21</v>
       </c>
@@ -5116,7 +7859,7 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="25"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
@@ -5164,22 +7907,22 @@
       <c r="F6" s="3">
         <v>240</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="32">
         <v>1E-4</v>
       </c>
       <c r="I6" s="3">
         <v>16</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="32">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="3">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="32">
         <v>200</v>
       </c>
       <c r="M6" s="2">
@@ -5205,16 +7948,16 @@
       <c r="F7" s="3">
         <v>240</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="3">
         <v>16</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="2">
         <v>199</v>
       </c>
@@ -5238,16 +7981,16 @@
       <c r="F8" s="3">
         <v>240</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="3">
         <v>32</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="3">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="2">
         <v>103</v>
       </c>
@@ -5271,16 +8014,16 @@
       <c r="F9" s="3">
         <v>240</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="3">
         <v>32</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="2">
         <v>150</v>
       </c>
@@ -5304,16 +8047,16 @@
       <c r="F10" s="3">
         <v>240</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="3">
         <v>64</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="3">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="2">
         <v>199</v>
       </c>
@@ -5337,16 +8080,16 @@
       <c r="F11" s="3">
         <v>240</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="3">
         <v>64</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="2">
         <v>114</v>
       </c>
@@ -5370,16 +8113,16 @@
       <c r="F12" s="3">
         <v>256</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="3">
         <v>16</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="3">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="2">
         <v>83</v>
       </c>
@@ -5403,16 +8146,16 @@
       <c r="F13" s="3">
         <v>256</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="3">
         <v>16</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="2">
         <v>199</v>
       </c>
@@ -5436,16 +8179,16 @@
       <c r="F14" s="3">
         <v>256</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="3">
         <v>32</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="3">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="2">
         <v>103</v>
       </c>
@@ -5469,16 +8212,16 @@
       <c r="F15" s="3">
         <v>256</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="3">
         <v>32</v>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="2">
         <v>130</v>
       </c>
@@ -5493,7 +8236,7 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="25"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="29" t="s">
         <v>21</v>
       </c>
@@ -5510,25 +8253,25 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="31"/>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32" t="s">
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="25"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
@@ -6301,11 +9044,6 @@
     <sortCondition descending="1" ref="AD19:AD28"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -6320,6 +9058,11 @@
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
     <mergeCell ref="E4:L4"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6331,8 +9074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C04CA8-7E11-46B5-8A38-0B245AB1C139}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
